--- a/test/PREIPO_2022-10-05.xlsx
+++ b/test/PREIPO_2022-10-05.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SGURUNAG/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20808BF2-114D-2740-BAD5-DB98A7FB265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="PREIPO_Final_Report_2022-10-05" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="PREIPO_Final_Report_2022-10-05" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -199,39 +190,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mmm/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd/mmm/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -239,7 +224,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -249,49 +234,44 @@
     </fill>
   </fills>
   <borders count="6">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <left style="thin">
@@ -300,59 +280,65 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+  <cellXfs count="14">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -542,23 +528,20 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,9 +571,9 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="4">
-        <v>44838</v>
+        <v>44838.0</v>
       </c>
       <c r="B2" s="4">
         <v>44839.365949074076</v>
@@ -610,14 +593,14 @@
       <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="4">
-        <v>44838</v>
+        <v>44838.0</v>
       </c>
       <c r="B3" s="4">
         <v>44839.365949074076</v>
@@ -637,14 +620,14 @@
       <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="A4" s="4">
-        <v>44838</v>
+        <v>44838.0</v>
       </c>
       <c r="B4" s="4">
         <v>44839.365949074076</v>
@@ -664,12 +647,12 @@
       <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5">
       <c r="A5" s="4">
-        <v>44838</v>
+        <v>44838.0</v>
       </c>
       <c r="B5" s="4">
         <v>44839.365949074076</v>
@@ -689,12 +672,12 @@
       <c r="G5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6">
       <c r="A6" s="4">
-        <v>44838</v>
+        <v>44838.0</v>
       </c>
       <c r="B6" s="4">
         <v>44839.365949074076</v>
@@ -714,12 +697,12 @@
       <c r="G6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7">
       <c r="A7" s="4">
-        <v>44838</v>
+        <v>44838.0</v>
       </c>
       <c r="B7" s="4">
         <v>44839.365949074076</v>
@@ -739,14 +722,14 @@
       <c r="G7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="4">
-        <v>44838</v>
+        <v>44838.0</v>
       </c>
       <c r="B8" s="4">
         <v>44839.365949074076</v>
@@ -766,14 +749,14 @@
       <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9" s="4">
-        <v>44838</v>
+        <v>44838.0</v>
       </c>
       <c r="B9" s="4">
         <v>44839.365949074076</v>
@@ -793,14 +776,14 @@
       <c r="G9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="4">
-        <v>44839</v>
+        <v>44839.0</v>
       </c>
       <c r="B10" s="4">
         <v>44839.365949074076</v>
@@ -820,51 +803,51 @@
       <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
-        <v>44839</v>
-      </c>
-      <c r="B11" s="8">
-        <v>44839.729618055557</v>
-      </c>
-      <c r="C11" s="9" t="s">
+    <row r="11">
+      <c r="A11" s="9">
+        <v>44839.0</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44839.72961805556</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="13"/>
+      <c r="I11" s="10" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="G4"/>
+    <hyperlink r:id="rId4" ref="G5"/>
+    <hyperlink r:id="rId5" ref="G6"/>
+    <hyperlink r:id="rId6" ref="G7"/>
+    <hyperlink r:id="rId7" ref="G8"/>
+    <hyperlink r:id="rId8" ref="G9"/>
+    <hyperlink r:id="rId9" ref="G10"/>
+    <hyperlink r:id="rId10" ref="G11"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>